--- a/ExcelUtils/Test_Data_Report.xlsx
+++ b/ExcelUtils/Test_Data_Report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BalamuruganM\eclipse-workspace\UAT_Nagico_Medical\ExcelUtils\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4564" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5098" uniqueCount="358">
   <si>
     <t>S_No</t>
   </si>
@@ -336,6 +336,780 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Q24085301000993</t>
+  </si>
+  <si>
+    <t>Q24085301000994</t>
+  </si>
+  <si>
+    <t>Q24085301000995</t>
+  </si>
+  <si>
+    <t>Q24085301000996</t>
+  </si>
+  <si>
+    <t>Q24085301000997</t>
+  </si>
+  <si>
+    <t>Q24085301000998</t>
+  </si>
+  <si>
+    <t>P24085301000055</t>
+  </si>
+  <si>
+    <t>Q24085301000999</t>
+  </si>
+  <si>
+    <t>Q24085201001000</t>
+  </si>
+  <si>
+    <t>Q24085201001142</t>
+  </si>
+  <si>
+    <t>Q24085201001143</t>
+  </si>
+  <si>
+    <t>Q24085201001144</t>
+  </si>
+  <si>
+    <t>P24085201000160</t>
+  </si>
+  <si>
+    <t>Q24085301001145</t>
+  </si>
+  <si>
+    <t>Q24085301001146</t>
+  </si>
+  <si>
+    <t>Q24085101001147</t>
+  </si>
+  <si>
+    <t>P24085101000503</t>
+  </si>
+  <si>
+    <t>Q24085101001148</t>
+  </si>
+  <si>
+    <t>Q24085101001149</t>
+  </si>
+  <si>
+    <t>P24085101000504</t>
+  </si>
+  <si>
+    <t>Q24085101001150</t>
+  </si>
+  <si>
+    <t>P24085101000505</t>
+  </si>
+  <si>
+    <t>Q24085101001151</t>
+  </si>
+  <si>
+    <t>P24085101000506</t>
+  </si>
+  <si>
+    <t>Q24085101001152</t>
+  </si>
+  <si>
+    <t>P24085101000507</t>
+  </si>
+  <si>
+    <t>Q24085101001153</t>
+  </si>
+  <si>
+    <t>P24085101000508</t>
+  </si>
+  <si>
+    <t>Q24085101001154</t>
+  </si>
+  <si>
+    <t>P24085101000509</t>
+  </si>
+  <si>
+    <t>Q24085101001155</t>
+  </si>
+  <si>
+    <t>P24085101000510</t>
+  </si>
+  <si>
+    <t>Q24085101001156</t>
+  </si>
+  <si>
+    <t>P24085101000511</t>
+  </si>
+  <si>
+    <t>Q24085101001157</t>
+  </si>
+  <si>
+    <t>Q24085101001158</t>
+  </si>
+  <si>
+    <t>P24085101000512</t>
+  </si>
+  <si>
+    <t>Q24085101001159</t>
+  </si>
+  <si>
+    <t>P24085101000513</t>
+  </si>
+  <si>
+    <t>Q24085101001160</t>
+  </si>
+  <si>
+    <t>P24085101000514</t>
+  </si>
+  <si>
+    <t>Q24085101001161</t>
+  </si>
+  <si>
+    <t>P24085101000515</t>
+  </si>
+  <si>
+    <t>Q24085101001162</t>
+  </si>
+  <si>
+    <t>P24085101000516</t>
+  </si>
+  <si>
+    <t>Q24085101001163</t>
+  </si>
+  <si>
+    <t>P24085101000517</t>
+  </si>
+  <si>
+    <t>Q24085101001164</t>
+  </si>
+  <si>
+    <t>P24085101000518</t>
+  </si>
+  <si>
+    <t>Q24085101001165</t>
+  </si>
+  <si>
+    <t>Q24085101001166</t>
+  </si>
+  <si>
+    <t>Q24085101001167</t>
+  </si>
+  <si>
+    <t>P24085101000519</t>
+  </si>
+  <si>
+    <t>Q24085101001168</t>
+  </si>
+  <si>
+    <t>P24085101000520</t>
+  </si>
+  <si>
+    <t>Q24085101001169</t>
+  </si>
+  <si>
+    <t>P24085101000521</t>
+  </si>
+  <si>
+    <t>Q24085101001170</t>
+  </si>
+  <si>
+    <t>P24085101000522</t>
+  </si>
+  <si>
+    <t>Q24085201001171</t>
+  </si>
+  <si>
+    <t>P24085201000161</t>
+  </si>
+  <si>
+    <t>Q24085201001172</t>
+  </si>
+  <si>
+    <t>P24085201000162</t>
+  </si>
+  <si>
+    <t>Q24085201001173</t>
+  </si>
+  <si>
+    <t>P24085201000163</t>
+  </si>
+  <si>
+    <t>Q24085201001174</t>
+  </si>
+  <si>
+    <t>Q24085201001175</t>
+  </si>
+  <si>
+    <t>P24085201000164</t>
+  </si>
+  <si>
+    <t>Q24085201001176</t>
+  </si>
+  <si>
+    <t>P24085201000165</t>
+  </si>
+  <si>
+    <t>Q24085201001177</t>
+  </si>
+  <si>
+    <t>P24085201000166</t>
+  </si>
+  <si>
+    <t>Q24085201001178</t>
+  </si>
+  <si>
+    <t>P24085201000167</t>
+  </si>
+  <si>
+    <t>Q24085201001179</t>
+  </si>
+  <si>
+    <t>P24085201000168</t>
+  </si>
+  <si>
+    <t>Q24085201001180</t>
+  </si>
+  <si>
+    <t>P24085201000169</t>
+  </si>
+  <si>
+    <t>Q24085201001181</t>
+  </si>
+  <si>
+    <t>Q24085201001182</t>
+  </si>
+  <si>
+    <t>P24085201000170</t>
+  </si>
+  <si>
+    <t>Q24085201001183</t>
+  </si>
+  <si>
+    <t>P24085201000171</t>
+  </si>
+  <si>
+    <t>Q24085201001184</t>
+  </si>
+  <si>
+    <t>P24085201000172</t>
+  </si>
+  <si>
+    <t>Q24085201001185</t>
+  </si>
+  <si>
+    <t>Q24085201001186</t>
+  </si>
+  <si>
+    <t>P24085201000173</t>
+  </si>
+  <si>
+    <t>Q24085201001187</t>
+  </si>
+  <si>
+    <t>P24085201000174</t>
+  </si>
+  <si>
+    <t>Q24085201001188</t>
+  </si>
+  <si>
+    <t>P24085201000175</t>
+  </si>
+  <si>
+    <t>Q24085201001189</t>
+  </si>
+  <si>
+    <t>P24085201000176</t>
+  </si>
+  <si>
+    <t>Q24085201001190</t>
+  </si>
+  <si>
+    <t>P24085201000177</t>
+  </si>
+  <si>
+    <t>Q24085201001191</t>
+  </si>
+  <si>
+    <t>Q24085201001192</t>
+  </si>
+  <si>
+    <t>P24085201000178</t>
+  </si>
+  <si>
+    <t>Q24085201001193</t>
+  </si>
+  <si>
+    <t>P24085201000179</t>
+  </si>
+  <si>
+    <t>Q24085401001194</t>
+  </si>
+  <si>
+    <t>P24085401000137</t>
+  </si>
+  <si>
+    <t>Q24085401001195</t>
+  </si>
+  <si>
+    <t>Q24085401001196</t>
+  </si>
+  <si>
+    <t>P24085401000138</t>
+  </si>
+  <si>
+    <t>Q24085401001197</t>
+  </si>
+  <si>
+    <t>P24085401000139</t>
+  </si>
+  <si>
+    <t>Q24085401001198</t>
+  </si>
+  <si>
+    <t>P24085401000140</t>
+  </si>
+  <si>
+    <t>Q24085401001199</t>
+  </si>
+  <si>
+    <t>Q24085401001200</t>
+  </si>
+  <si>
+    <t>Q24085401001201</t>
+  </si>
+  <si>
+    <t>Q24085401001202</t>
+  </si>
+  <si>
+    <t>P24085401000141</t>
+  </si>
+  <si>
+    <t>Q24085401001203</t>
+  </si>
+  <si>
+    <t>P24085401000142</t>
+  </si>
+  <si>
+    <t>Q24085401001204</t>
+  </si>
+  <si>
+    <t>P24085401000143</t>
+  </si>
+  <si>
+    <t>Q24085401001206</t>
+  </si>
+  <si>
+    <t>P24085401000144</t>
+  </si>
+  <si>
+    <t>Q24085401001207</t>
+  </si>
+  <si>
+    <t>P24085401000145</t>
+  </si>
+  <si>
+    <t>Q24085401001208</t>
+  </si>
+  <si>
+    <t>Q24085401001209</t>
+  </si>
+  <si>
+    <t>P24085401000146</t>
+  </si>
+  <si>
+    <t>Q24085401001210</t>
+  </si>
+  <si>
+    <t>P24085401000147</t>
+  </si>
+  <si>
+    <t>Q24085401001211</t>
+  </si>
+  <si>
+    <t>P24085401000148</t>
+  </si>
+  <si>
+    <t>Q24085401001212</t>
+  </si>
+  <si>
+    <t>P24085401000149</t>
+  </si>
+  <si>
+    <t>Q24085401001213</t>
+  </si>
+  <si>
+    <t>P24085401000150</t>
+  </si>
+  <si>
+    <t>Q24085401001214</t>
+  </si>
+  <si>
+    <t>Q24085401001215</t>
+  </si>
+  <si>
+    <t>P24085401000151</t>
+  </si>
+  <si>
+    <t>Q24085401001216</t>
+  </si>
+  <si>
+    <t>P24085401000152</t>
+  </si>
+  <si>
+    <t>Q24085301001217</t>
+  </si>
+  <si>
+    <t>P24085301000030</t>
+  </si>
+  <si>
+    <t>Q24085301001218</t>
+  </si>
+  <si>
+    <t>P24085301000031</t>
+  </si>
+  <si>
+    <t>Q24085301001219</t>
+  </si>
+  <si>
+    <t>P24085301000032</t>
+  </si>
+  <si>
+    <t>Q24085301001220</t>
+  </si>
+  <si>
+    <t>P24085301000033</t>
+  </si>
+  <si>
+    <t>Q24085301001221</t>
+  </si>
+  <si>
+    <t>P24085301000034</t>
+  </si>
+  <si>
+    <t>Q24085301001222</t>
+  </si>
+  <si>
+    <t>P24085301000035</t>
+  </si>
+  <si>
+    <t>Q24085301001223</t>
+  </si>
+  <si>
+    <t>Q24085301001224</t>
+  </si>
+  <si>
+    <t>P24085301000036</t>
+  </si>
+  <si>
+    <t>Q24085301001225</t>
+  </si>
+  <si>
+    <t>Q24085301001226</t>
+  </si>
+  <si>
+    <t>P24085301000037</t>
+  </si>
+  <si>
+    <t>Q24085301001227</t>
+  </si>
+  <si>
+    <t>P24085301000038</t>
+  </si>
+  <si>
+    <t>Q24085301001228</t>
+  </si>
+  <si>
+    <t>P24085301000039</t>
+  </si>
+  <si>
+    <t>Q24085301001229</t>
+  </si>
+  <si>
+    <t>P24085301000040</t>
+  </si>
+  <si>
+    <t>Q24085301001230</t>
+  </si>
+  <si>
+    <t>P24085301000041</t>
+  </si>
+  <si>
+    <t>Q24085301001231</t>
+  </si>
+  <si>
+    <t>P24085301000042</t>
+  </si>
+  <si>
+    <t>Q24085301001232</t>
+  </si>
+  <si>
+    <t>P24085301000043</t>
+  </si>
+  <si>
+    <t>Q24085301001233</t>
+  </si>
+  <si>
+    <t>P24085301000044</t>
+  </si>
+  <si>
+    <t>Q24085301001234</t>
+  </si>
+  <si>
+    <t>P24085301000045</t>
+  </si>
+  <si>
+    <t>Q24085301001235</t>
+  </si>
+  <si>
+    <t>P24085301000046</t>
+  </si>
+  <si>
+    <t>Q24085301001236</t>
+  </si>
+  <si>
+    <t>P24085301000047</t>
+  </si>
+  <si>
+    <t>Q24085301001237</t>
+  </si>
+  <si>
+    <t>P24085301000048</t>
+  </si>
+  <si>
+    <t>Q24085301001238</t>
+  </si>
+  <si>
+    <t>P24085301000049</t>
+  </si>
+  <si>
+    <t>Q124085001001239</t>
+  </si>
+  <si>
+    <t>P124085001000062</t>
+  </si>
+  <si>
+    <t>Q124085001001240</t>
+  </si>
+  <si>
+    <t>P124085001000063</t>
+  </si>
+  <si>
+    <t>Q124085001001241</t>
+  </si>
+  <si>
+    <t>P124085001000064</t>
+  </si>
+  <si>
+    <t>Q124085001001242</t>
+  </si>
+  <si>
+    <t>P124085001000065</t>
+  </si>
+  <si>
+    <t>Q124085001001243</t>
+  </si>
+  <si>
+    <t>P124085001000066</t>
+  </si>
+  <si>
+    <t>Q124085001001244</t>
+  </si>
+  <si>
+    <t>P124085001000067</t>
+  </si>
+  <si>
+    <t>Q124085001001245</t>
+  </si>
+  <si>
+    <t>P124085001000068</t>
+  </si>
+  <si>
+    <t>Q124085001001246</t>
+  </si>
+  <si>
+    <t>P124085001000069</t>
+  </si>
+  <si>
+    <t>Q24085001001247</t>
+  </si>
+  <si>
+    <t>P24085001000070</t>
+  </si>
+  <si>
+    <t>Q24085001001248</t>
+  </si>
+  <si>
+    <t>P24085001000071</t>
+  </si>
+  <si>
+    <t>Q24085001001249</t>
+  </si>
+  <si>
+    <t>Q24085001001250</t>
+  </si>
+  <si>
+    <t>P24085001000072</t>
+  </si>
+  <si>
+    <t>Q124085001001251</t>
+  </si>
+  <si>
+    <t>P124085001000073</t>
+  </si>
+  <si>
+    <t>Q124085001001252</t>
+  </si>
+  <si>
+    <t>P124085001000074</t>
+  </si>
+  <si>
+    <t>Q124085001001253</t>
+  </si>
+  <si>
+    <t>P124085001000075</t>
+  </si>
+  <si>
+    <t>Q124085001001254</t>
+  </si>
+  <si>
+    <t>P124085001000076</t>
+  </si>
+  <si>
+    <t>Q124085001001255</t>
+  </si>
+  <si>
+    <t>Q124085001001256</t>
+  </si>
+  <si>
+    <t>P124085001000077</t>
+  </si>
+  <si>
+    <t>Q124085001001257</t>
+  </si>
+  <si>
+    <t>Q24085001001258</t>
+  </si>
+  <si>
+    <t>P24085001000078</t>
+  </si>
+  <si>
+    <t>Q24085001001259</t>
+  </si>
+  <si>
+    <t>P24085001000079</t>
+  </si>
+  <si>
+    <t>Q24085001001260</t>
+  </si>
+  <si>
+    <t>P24085001000080</t>
+  </si>
+  <si>
+    <t>Q24085501001261</t>
+  </si>
+  <si>
+    <t>Q24085501001263</t>
+  </si>
+  <si>
+    <t>P24085501000044</t>
+  </si>
+  <si>
+    <t>Q24085501001264</t>
+  </si>
+  <si>
+    <t>Q24085501001265</t>
+  </si>
+  <si>
+    <t>Q24085501001266</t>
+  </si>
+  <si>
+    <t>P24085501000045</t>
+  </si>
+  <si>
+    <t>Q24085501001267</t>
+  </si>
+  <si>
+    <t>Q24085501001268</t>
+  </si>
+  <si>
+    <t>Q24085501001269</t>
+  </si>
+  <si>
+    <t>Q24085501001270</t>
+  </si>
+  <si>
+    <t>Q24085501001271</t>
+  </si>
+  <si>
+    <t>P24085501000046</t>
+  </si>
+  <si>
+    <t>Q24085501001272</t>
+  </si>
+  <si>
+    <t>Q24085501001273</t>
+  </si>
+  <si>
+    <t>Q24085501001274</t>
+  </si>
+  <si>
+    <t>Q24085501001275</t>
+  </si>
+  <si>
+    <t>P24085501000047</t>
+  </si>
+  <si>
+    <t>Q24085501001276</t>
+  </si>
+  <si>
+    <t>P24085501000048</t>
+  </si>
+  <si>
+    <t>Q24085501001277</t>
+  </si>
+  <si>
+    <t>P24085501000049</t>
+  </si>
+  <si>
+    <t>Q24085501001278</t>
+  </si>
+  <si>
+    <t>Q24085501001279</t>
+  </si>
+  <si>
+    <t>P24085501000050</t>
+  </si>
+  <si>
+    <t>Q24085501001280</t>
+  </si>
+  <si>
+    <t>P24085501000051</t>
+  </si>
+  <si>
+    <t>Q24085501001281</t>
+  </si>
+  <si>
+    <t>P24085501000052</t>
+  </si>
+  <si>
+    <t>Q24085101001290</t>
+  </si>
+  <si>
+    <t>P24085101000523</t>
+  </si>
+  <si>
+    <t>Q24085101001292</t>
+  </si>
+  <si>
+    <t>P24085101000524</t>
+  </si>
+  <si>
+    <t>Q24085101001294</t>
+  </si>
+  <si>
+    <t>P24085101000525</t>
+  </si>
+  <si>
+    <t>Q24085101001296</t>
   </si>
 </sst>
 </file>
@@ -345,7 +1119,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,51 +1526,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="25.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="43" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="34" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="33" max="34" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
@@ -1069,10 +1843,14 @@
       <c r="AR2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2" t="s">
-        <v>96</v>
+      <c r="AS2" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>352</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
@@ -1202,13 +1980,13 @@
       <c r="AR3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AS3" t="s">
+        <v>353</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>354</v>
+      </c>
+      <c r="AU3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1339,10 +2117,14 @@
       <c r="AR4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2" t="s">
-        <v>96</v>
+      <c r="AS4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>356</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
@@ -1472,9 +2254,15 @@
       <c r="AR5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
+      <c r="AS5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1603,9 +2391,15 @@
       <c r="AR6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="2"/>
-      <c r="AU6" s="2"/>
+      <c r="AS6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1734,9 +2528,15 @@
       <c r="AR7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2"/>
-      <c r="AU7" s="2"/>
+      <c r="AS7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1865,9 +2665,15 @@
       <c r="AR8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS8" s="2"/>
-      <c r="AT8" s="2"/>
-      <c r="AU8" s="2"/>
+      <c r="AS8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1996,9 +2802,15 @@
       <c r="AR9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
+      <c r="AS9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -2127,9 +2939,15 @@
       <c r="AR10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS10" s="2"/>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="2"/>
+      <c r="AS10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -2258,9 +3076,15 @@
       <c r="AR11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS11" s="2"/>
-      <c r="AT11" s="2"/>
-      <c r="AU11" s="2"/>
+      <c r="AS11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -2389,9 +3213,13 @@
       <c r="AR12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS12" s="2"/>
+      <c r="AS12" t="s">
+        <v>134</v>
+      </c>
       <c r="AT12" s="2"/>
-      <c r="AU12" s="2"/>
+      <c r="AU12" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -2520,9 +3348,15 @@
       <c r="AR13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS13" s="2"/>
-      <c r="AT13" s="2"/>
-      <c r="AU13" s="2"/>
+      <c r="AS13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -2655,9 +3489,15 @@
       <c r="AR14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS14" s="2"/>
-      <c r="AT14" s="2"/>
-      <c r="AU14" s="2"/>
+      <c r="AS14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -2790,9 +3630,15 @@
       <c r="AR15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS15" s="2"/>
-      <c r="AT15" s="2"/>
-      <c r="AU15" s="2"/>
+      <c r="AS15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -2925,9 +3771,15 @@
       <c r="AR16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS16" s="2"/>
-      <c r="AT16" s="2"/>
-      <c r="AU16" s="2"/>
+      <c r="AS16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -3060,9 +3912,15 @@
       <c r="AR17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS17" s="2"/>
-      <c r="AT17" s="2"/>
-      <c r="AU17" s="2"/>
+      <c r="AS17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -3195,9 +4053,15 @@
       <c r="AR18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS18" s="2"/>
-      <c r="AT18" s="2"/>
-      <c r="AU18" s="2"/>
+      <c r="AS18" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -3330,9 +4194,15 @@
       <c r="AR19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS19" s="2"/>
-      <c r="AT19" s="2"/>
-      <c r="AU19" s="2"/>
+      <c r="AS19" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -3465,9 +4335,13 @@
       <c r="AR20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS20" s="2"/>
+      <c r="AS20" t="s">
+        <v>149</v>
+      </c>
       <c r="AT20" s="2"/>
-      <c r="AU20" s="2"/>
+      <c r="AU20" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -3600,9 +4474,13 @@
       <c r="AR21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS21" s="2"/>
+      <c r="AS21" t="s">
+        <v>150</v>
+      </c>
       <c r="AT21" s="2"/>
-      <c r="AU21" s="2"/>
+      <c r="AU21" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -3735,9 +4613,15 @@
       <c r="AR22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS22" s="2"/>
-      <c r="AT22" s="2"/>
-      <c r="AU22" s="2"/>
+      <c r="AS22" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -3870,9 +4754,15 @@
       <c r="AR23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS23" s="2"/>
-      <c r="AT23" s="2"/>
-      <c r="AU23" s="2"/>
+      <c r="AS23" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -4005,9 +4895,15 @@
       <c r="AR24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS24" s="2"/>
-      <c r="AT24" s="2"/>
-      <c r="AU24" s="2"/>
+      <c r="AS24" t="s">
+        <v>155</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -4140,9 +5036,15 @@
       <c r="AR25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS25" s="2"/>
-      <c r="AT25" s="2"/>
-      <c r="AU25" s="2"/>
+      <c r="AS25" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -4271,9 +5173,15 @@
       <c r="AR26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS26" s="2"/>
-      <c r="AT26" s="2"/>
-      <c r="AU26" s="2"/>
+      <c r="AS26" t="s">
+        <v>159</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -4402,9 +5310,15 @@
       <c r="AR27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS27" s="2"/>
-      <c r="AT27" s="2"/>
-      <c r="AU27" s="2"/>
+      <c r="AS27" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -4533,9 +5447,15 @@
       <c r="AR28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS28" s="2"/>
-      <c r="AT28" s="2"/>
-      <c r="AU28" s="2"/>
+      <c r="AS28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -4664,9 +5584,13 @@
       <c r="AR29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS29" s="2"/>
+      <c r="AS29" t="s">
+        <v>165</v>
+      </c>
       <c r="AT29" s="2"/>
-      <c r="AU29" s="2"/>
+      <c r="AU29" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -4795,9 +5719,15 @@
       <c r="AR30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS30" s="2"/>
-      <c r="AT30" s="2"/>
-      <c r="AU30" s="2"/>
+      <c r="AS30" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>167</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -4926,9 +5856,15 @@
       <c r="AR31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS31" s="2"/>
-      <c r="AT31" s="2"/>
-      <c r="AU31" s="2"/>
+      <c r="AS31" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -5057,9 +5993,15 @@
       <c r="AR32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS32" s="2"/>
-      <c r="AT32" s="2"/>
-      <c r="AU32" s="2"/>
+      <c r="AS32" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>171</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -5188,9 +6130,15 @@
       <c r="AR33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS33" s="2"/>
-      <c r="AT33" s="2"/>
-      <c r="AU33" s="2"/>
+      <c r="AS33" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>173</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -5319,9 +6267,15 @@
       <c r="AR34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS34" s="2"/>
-      <c r="AT34" s="2"/>
-      <c r="AU34" s="2"/>
+      <c r="AS34" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -5450,9 +6404,15 @@
       <c r="AR35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS35" s="2"/>
-      <c r="AT35" s="2"/>
-      <c r="AU35" s="2"/>
+      <c r="AS35" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -5581,9 +6541,13 @@
       <c r="AR36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS36" s="2"/>
+      <c r="AS36" t="s">
+        <v>178</v>
+      </c>
       <c r="AT36" s="2"/>
-      <c r="AU36" s="2"/>
+      <c r="AU36" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -5712,9 +6676,15 @@
       <c r="AR37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS37" s="2"/>
-      <c r="AT37" s="2"/>
-      <c r="AU37" s="2"/>
+      <c r="AS37" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>180</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -5847,9 +6817,15 @@
       <c r="AR38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS38" s="2"/>
-      <c r="AT38" s="2"/>
-      <c r="AU38" s="2"/>
+      <c r="AS38" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
@@ -5982,9 +6958,15 @@
       <c r="AR39" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS39" s="2"/>
-      <c r="AT39" s="2"/>
-      <c r="AU39" s="2"/>
+      <c r="AS39" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -6117,9 +7099,13 @@
       <c r="AR40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS40" s="2"/>
+      <c r="AS40" t="s">
+        <v>185</v>
+      </c>
       <c r="AT40" s="2"/>
-      <c r="AU40" s="2"/>
+      <c r="AU40" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -6252,9 +7238,15 @@
       <c r="AR41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS41" s="2"/>
-      <c r="AT41" s="2"/>
-      <c r="AU41" s="2"/>
+      <c r="AS41" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>187</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -6387,9 +7379,15 @@
       <c r="AR42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS42" s="2"/>
-      <c r="AT42" s="2"/>
-      <c r="AU42" s="2"/>
+      <c r="AS42" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>189</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
@@ -6522,9 +7520,15 @@
       <c r="AR43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS43" s="2"/>
-      <c r="AT43" s="2"/>
-      <c r="AU43" s="2"/>
+      <c r="AS43" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>191</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
@@ -6657,9 +7661,15 @@
       <c r="AR44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS44" s="2"/>
-      <c r="AT44" s="2"/>
-      <c r="AU44" s="2"/>
+      <c r="AS44" t="s">
+        <v>192</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
@@ -6792,9 +7802,15 @@
       <c r="AR45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS45" s="2"/>
-      <c r="AT45" s="2"/>
-      <c r="AU45" s="2"/>
+      <c r="AS45" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
@@ -6929,7 +7945,9 @@
       </c>
       <c r="AS46" s="2"/>
       <c r="AT46" s="2"/>
-      <c r="AU46" s="2"/>
+      <c r="AU46" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -7062,9 +8080,13 @@
       <c r="AR47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS47" s="2"/>
+      <c r="AS47" t="s">
+        <v>196</v>
+      </c>
       <c r="AT47" s="2"/>
-      <c r="AU47" s="2"/>
+      <c r="AU47" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -7197,9 +8219,15 @@
       <c r="AR48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS48" s="2"/>
-      <c r="AT48" s="2"/>
-      <c r="AU48" s="2"/>
+      <c r="AS48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>198</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -7332,9 +8360,15 @@
       <c r="AR49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS49" s="2"/>
-      <c r="AT49" s="2"/>
-      <c r="AU49" s="2"/>
+      <c r="AS49" t="s">
+        <v>199</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="50" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -7465,9 +8499,15 @@
       <c r="AR50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS50" s="2"/>
-      <c r="AT50" s="2"/>
-      <c r="AU50" s="2"/>
+      <c r="AS50" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -7598,9 +8638,13 @@
       <c r="AR51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS51" s="2"/>
+      <c r="AS51" t="s">
+        <v>203</v>
+      </c>
       <c r="AT51" s="2"/>
-      <c r="AU51" s="2"/>
+      <c r="AU51" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="52" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
@@ -7731,9 +8775,15 @@
       <c r="AR52" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS52" s="2"/>
-      <c r="AT52" s="2"/>
-      <c r="AU52" s="2"/>
+      <c r="AS52" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
@@ -7864,9 +8914,15 @@
       <c r="AR53" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS53" s="2"/>
-      <c r="AT53" s="2"/>
-      <c r="AU53" s="2"/>
+      <c r="AS53" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="54" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -7997,9 +9053,15 @@
       <c r="AR54" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS54" s="2"/>
-      <c r="AT54" s="2"/>
-      <c r="AU54" s="2"/>
+      <c r="AS54" t="s">
+        <v>208</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>209</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -8130,9 +9192,13 @@
       <c r="AR55" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS55" s="2"/>
+      <c r="AS55" t="s">
+        <v>210</v>
+      </c>
       <c r="AT55" s="2"/>
-      <c r="AU55" s="2"/>
+      <c r="AU55" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="56" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -8263,9 +9329,13 @@
       <c r="AR56" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS56" s="2"/>
+      <c r="AS56" t="s">
+        <v>211</v>
+      </c>
       <c r="AT56" s="2"/>
-      <c r="AU56" s="2"/>
+      <c r="AU56" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
@@ -8396,9 +9466,13 @@
       <c r="AR57" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS57" s="2"/>
+      <c r="AS57" t="s">
+        <v>212</v>
+      </c>
       <c r="AT57" s="2"/>
-      <c r="AU57" s="2"/>
+      <c r="AU57" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
@@ -8529,9 +9603,15 @@
       <c r="AR58" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS58" s="2"/>
-      <c r="AT58" s="2"/>
-      <c r="AU58" s="2"/>
+      <c r="AS58" t="s">
+        <v>213</v>
+      </c>
+      <c r="AT58" t="s">
+        <v>214</v>
+      </c>
+      <c r="AU58" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="59" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
@@ -8662,9 +9742,15 @@
       <c r="AR59" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS59" s="2"/>
-      <c r="AT59" s="2"/>
-      <c r="AU59" s="2"/>
+      <c r="AS59" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT59" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU59" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="60" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -8795,9 +9881,15 @@
       <c r="AR60" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS60" s="2"/>
-      <c r="AT60" s="2"/>
-      <c r="AU60" s="2"/>
+      <c r="AS60" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AU60" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="61" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -8930,7 +10022,9 @@
       </c>
       <c r="AS61" s="2"/>
       <c r="AT61" s="2"/>
-      <c r="AU61" s="2"/>
+      <c r="AU61" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -9065,9 +10159,15 @@
       <c r="AR62" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS62" s="2"/>
-      <c r="AT62" s="2"/>
-      <c r="AU62" s="2"/>
+      <c r="AS62" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT62" t="s">
+        <v>220</v>
+      </c>
+      <c r="AU62" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
@@ -9202,9 +10302,15 @@
       <c r="AR63" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS63" s="2"/>
-      <c r="AT63" s="2"/>
-      <c r="AU63" s="2"/>
+      <c r="AS63" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT63" t="s">
+        <v>222</v>
+      </c>
+      <c r="AU63" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -9339,9 +10445,13 @@
       <c r="AR64" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS64" s="2"/>
+      <c r="AS64" t="s">
+        <v>223</v>
+      </c>
       <c r="AT64" s="2"/>
-      <c r="AU64" s="2"/>
+      <c r="AU64" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
@@ -9476,9 +10586,15 @@
       <c r="AR65" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS65" s="2"/>
-      <c r="AT65" s="2"/>
-      <c r="AU65" s="2"/>
+      <c r="AS65" t="s">
+        <v>224</v>
+      </c>
+      <c r="AT65" t="s">
+        <v>225</v>
+      </c>
+      <c r="AU65" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="66" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
@@ -9613,9 +10729,15 @@
       <c r="AR66" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS66" s="2"/>
-      <c r="AT66" s="2"/>
-      <c r="AU66" s="2"/>
+      <c r="AS66" t="s">
+        <v>226</v>
+      </c>
+      <c r="AT66" t="s">
+        <v>227</v>
+      </c>
+      <c r="AU66" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -9752,7 +10874,9 @@
       </c>
       <c r="AS67" s="2"/>
       <c r="AT67" s="2"/>
-      <c r="AU67" s="2"/>
+      <c r="AU67" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
@@ -9887,9 +11011,15 @@
       <c r="AR68" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS68" s="2"/>
-      <c r="AT68" s="2"/>
-      <c r="AU68" s="2"/>
+      <c r="AS68" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT68" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU68" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
@@ -10024,9 +11154,15 @@
       <c r="AR69" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS69" s="2"/>
-      <c r="AT69" s="2"/>
-      <c r="AU69" s="2"/>
+      <c r="AS69" t="s">
+        <v>230</v>
+      </c>
+      <c r="AT69" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU69" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="70" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -10161,9 +11297,15 @@
       <c r="AR70" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS70" s="2"/>
-      <c r="AT70" s="2"/>
-      <c r="AU70" s="2"/>
+      <c r="AS70" t="s">
+        <v>232</v>
+      </c>
+      <c r="AT70" t="s">
+        <v>233</v>
+      </c>
+      <c r="AU70" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
@@ -10298,9 +11440,13 @@
       <c r="AR71" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS71" s="2"/>
+      <c r="AS71" t="s">
+        <v>234</v>
+      </c>
       <c r="AT71" s="2"/>
-      <c r="AU71" s="2"/>
+      <c r="AU71" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="72" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
@@ -10435,9 +11581,15 @@
       <c r="AR72" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS72" s="2"/>
-      <c r="AT72" s="2"/>
-      <c r="AU72" s="2"/>
+      <c r="AS72" t="s">
+        <v>235</v>
+      </c>
+      <c r="AT72" t="s">
+        <v>236</v>
+      </c>
+      <c r="AU72" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="73" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
@@ -10572,9 +11724,15 @@
       <c r="AR73" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS73" s="2"/>
-      <c r="AT73" s="2"/>
-      <c r="AU73" s="2"/>
+      <c r="AS73" t="s">
+        <v>237</v>
+      </c>
+      <c r="AT73" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU73" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="74" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -10705,9 +11863,15 @@
       <c r="AR74" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS74" s="2"/>
-      <c r="AT74" s="2"/>
-      <c r="AU74" s="2"/>
+      <c r="AS74" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT74" t="s">
+        <v>240</v>
+      </c>
+      <c r="AU74" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="75" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
@@ -10840,7 +12004,9 @@
       </c>
       <c r="AS75" s="2"/>
       <c r="AT75" s="2"/>
-      <c r="AU75" s="2"/>
+      <c r="AU75" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="76" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
@@ -10971,9 +12137,15 @@
       <c r="AR76" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS76" s="2"/>
-      <c r="AT76" s="2"/>
-      <c r="AU76" s="2"/>
+      <c r="AS76" t="s">
+        <v>241</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>242</v>
+      </c>
+      <c r="AU76" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="77" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
@@ -11104,9 +12276,15 @@
       <c r="AR77" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS77" s="2"/>
-      <c r="AT77" s="2"/>
-      <c r="AU77" s="2"/>
+      <c r="AS77" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT77" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU77" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="78" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
@@ -11237,9 +12415,15 @@
       <c r="AR78" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS78" s="2"/>
-      <c r="AT78" s="2"/>
-      <c r="AU78" s="2"/>
+      <c r="AS78" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT78" t="s">
+        <v>246</v>
+      </c>
+      <c r="AU78" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="79" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -11370,9 +12554,15 @@
       <c r="AR79" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS79" s="2"/>
-      <c r="AT79" s="2"/>
-      <c r="AU79" s="2"/>
+      <c r="AS79" t="s">
+        <v>247</v>
+      </c>
+      <c r="AT79" t="s">
+        <v>248</v>
+      </c>
+      <c r="AU79" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="80" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
@@ -11503,9 +12693,15 @@
       <c r="AR80" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS80" s="2"/>
-      <c r="AT80" s="2"/>
-      <c r="AU80" s="2"/>
+      <c r="AS80" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT80" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU80" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="81" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
@@ -11636,9 +12832,13 @@
       <c r="AR81" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS81" s="2"/>
+      <c r="AS81" t="s">
+        <v>251</v>
+      </c>
       <c r="AT81" s="2"/>
-      <c r="AU81" s="2"/>
+      <c r="AU81" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="82" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
@@ -11769,9 +12969,15 @@
       <c r="AR82" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS82" s="2"/>
-      <c r="AT82" s="2"/>
-      <c r="AU82" s="2"/>
+      <c r="AS82" t="s">
+        <v>252</v>
+      </c>
+      <c r="AT82" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU82" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="83" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
@@ -11902,9 +13108,13 @@
       <c r="AR83" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS83" s="2"/>
+      <c r="AS83" t="s">
+        <v>254</v>
+      </c>
       <c r="AT83" s="2"/>
-      <c r="AU83" s="2"/>
+      <c r="AU83" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="84" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
@@ -12035,9 +13245,15 @@
       <c r="AR84" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS84" s="2"/>
-      <c r="AT84" s="2"/>
-      <c r="AU84" s="2"/>
+      <c r="AS84" t="s">
+        <v>255</v>
+      </c>
+      <c r="AT84" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU84" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="85" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
@@ -12168,9 +13384,15 @@
       <c r="AR85" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS85" s="2"/>
-      <c r="AT85" s="2"/>
-      <c r="AU85" s="2"/>
+      <c r="AS85" t="s">
+        <v>257</v>
+      </c>
+      <c r="AT85" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU85" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="86" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -12305,9 +13527,15 @@
       <c r="AR86" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS86" s="2"/>
-      <c r="AT86" s="2"/>
-      <c r="AU86" s="2"/>
+      <c r="AS86" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT86" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU86" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="87" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
@@ -12442,9 +13670,15 @@
       <c r="AR87" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS87" s="2"/>
-      <c r="AT87" s="2"/>
-      <c r="AU87" s="2"/>
+      <c r="AS87" t="s">
+        <v>261</v>
+      </c>
+      <c r="AT87" t="s">
+        <v>262</v>
+      </c>
+      <c r="AU87" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="88" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
@@ -12579,9 +13813,15 @@
       <c r="AR88" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS88" s="2"/>
-      <c r="AT88" s="2"/>
-      <c r="AU88" s="2"/>
+      <c r="AS88" t="s">
+        <v>263</v>
+      </c>
+      <c r="AT88" t="s">
+        <v>264</v>
+      </c>
+      <c r="AU88" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="89" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
@@ -12716,9 +13956,15 @@
       <c r="AR89" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS89" s="2"/>
-      <c r="AT89" s="2"/>
-      <c r="AU89" s="2"/>
+      <c r="AS89" t="s">
+        <v>265</v>
+      </c>
+      <c r="AT89" t="s">
+        <v>266</v>
+      </c>
+      <c r="AU89" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="90" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
@@ -12855,7 +14101,9 @@
       </c>
       <c r="AS90" s="2"/>
       <c r="AT90" s="2"/>
-      <c r="AU90" s="2"/>
+      <c r="AU90" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="91" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -12990,9 +14238,15 @@
       <c r="AR91" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS91" s="2"/>
-      <c r="AT91" s="2"/>
-      <c r="AU91" s="2"/>
+      <c r="AS91" t="s">
+        <v>267</v>
+      </c>
+      <c r="AT91" t="s">
+        <v>268</v>
+      </c>
+      <c r="AU91" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="92" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
@@ -13127,9 +14381,15 @@
       <c r="AR92" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS92" s="2"/>
-      <c r="AT92" s="2"/>
-      <c r="AU92" s="2"/>
+      <c r="AS92" t="s">
+        <v>269</v>
+      </c>
+      <c r="AT92" t="s">
+        <v>270</v>
+      </c>
+      <c r="AU92" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="93" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
@@ -13264,9 +14524,15 @@
       <c r="AR93" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS93" s="2"/>
-      <c r="AT93" s="2"/>
-      <c r="AU93" s="2"/>
+      <c r="AS93" t="s">
+        <v>271</v>
+      </c>
+      <c r="AT93" t="s">
+        <v>272</v>
+      </c>
+      <c r="AU93" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="94" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
@@ -13401,9 +14667,15 @@
       <c r="AR94" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS94" s="2"/>
-      <c r="AT94" s="2"/>
-      <c r="AU94" s="2"/>
+      <c r="AS94" t="s">
+        <v>273</v>
+      </c>
+      <c r="AT94" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU94" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="95" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
@@ -13538,9 +14810,15 @@
       <c r="AR95" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS95" s="2"/>
-      <c r="AT95" s="2"/>
-      <c r="AU95" s="2"/>
+      <c r="AS95" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT95" t="s">
+        <v>276</v>
+      </c>
+      <c r="AU95" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="96" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
@@ -13675,9 +14953,15 @@
       <c r="AR96" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS96" s="2"/>
-      <c r="AT96" s="2"/>
-      <c r="AU96" s="2"/>
+      <c r="AS96" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT96" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU96" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="97" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
@@ -13812,9 +15096,15 @@
       <c r="AR97" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS97" s="2"/>
-      <c r="AT97" s="2"/>
-      <c r="AU97" s="2"/>
+      <c r="AS97" t="s">
+        <v>279</v>
+      </c>
+      <c r="AT97" t="s">
+        <v>280</v>
+      </c>
+      <c r="AU97" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="98" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -13943,9 +15233,15 @@
       <c r="AR98" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS98" s="2"/>
-      <c r="AT98" s="2"/>
-      <c r="AU98" s="2"/>
+      <c r="AS98" t="s">
+        <v>281</v>
+      </c>
+      <c r="AT98" t="s">
+        <v>282</v>
+      </c>
+      <c r="AU98" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="99" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
@@ -14074,9 +15370,15 @@
       <c r="AR99" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS99" s="2"/>
-      <c r="AT99" s="2"/>
-      <c r="AU99" s="2"/>
+      <c r="AS99" t="s">
+        <v>283</v>
+      </c>
+      <c r="AT99" t="s">
+        <v>284</v>
+      </c>
+      <c r="AU99" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="100" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
@@ -14205,9 +15507,15 @@
       <c r="AR100" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS100" s="2"/>
-      <c r="AT100" s="2"/>
-      <c r="AU100" s="2"/>
+      <c r="AS100" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT100" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU100" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="101" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
@@ -14336,9 +15644,15 @@
       <c r="AR101" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS101" s="2"/>
-      <c r="AT101" s="2"/>
-      <c r="AU101" s="2"/>
+      <c r="AS101" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT101" t="s">
+        <v>288</v>
+      </c>
+      <c r="AU101" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="102" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
@@ -14467,9 +15781,15 @@
       <c r="AR102" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS102" s="2"/>
-      <c r="AT102" s="2"/>
-      <c r="AU102" s="2"/>
+      <c r="AS102" t="s">
+        <v>289</v>
+      </c>
+      <c r="AT102" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU102" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="103" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -14598,9 +15918,15 @@
       <c r="AR103" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS103" s="2"/>
-      <c r="AT103" s="2"/>
-      <c r="AU103" s="2"/>
+      <c r="AS103" t="s">
+        <v>291</v>
+      </c>
+      <c r="AT103" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU103" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="104" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
@@ -14729,9 +16055,15 @@
       <c r="AR104" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS104" s="2"/>
-      <c r="AT104" s="2"/>
-      <c r="AU104" s="2"/>
+      <c r="AS104" t="s">
+        <v>293</v>
+      </c>
+      <c r="AT104" t="s">
+        <v>294</v>
+      </c>
+      <c r="AU104" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="105" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
@@ -14860,9 +16192,15 @@
       <c r="AR105" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS105" s="2"/>
-      <c r="AT105" s="2"/>
-      <c r="AU105" s="2"/>
+      <c r="AS105" t="s">
+        <v>295</v>
+      </c>
+      <c r="AT105" t="s">
+        <v>296</v>
+      </c>
+      <c r="AU105" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="106" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
@@ -14991,9 +16329,15 @@
       <c r="AR106" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS106" s="2"/>
-      <c r="AT106" s="2"/>
-      <c r="AU106" s="2"/>
+      <c r="AS106" t="s">
+        <v>297</v>
+      </c>
+      <c r="AT106" t="s">
+        <v>298</v>
+      </c>
+      <c r="AU106" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="107" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
@@ -15122,9 +16466,15 @@
       <c r="AR107" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS107" s="2"/>
-      <c r="AT107" s="2"/>
-      <c r="AU107" s="2"/>
+      <c r="AS107" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT107" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU107" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="108" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
@@ -15253,9 +16603,13 @@
       <c r="AR108" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS108" s="2"/>
+      <c r="AS108" t="s">
+        <v>301</v>
+      </c>
       <c r="AT108" s="2"/>
-      <c r="AU108" s="2"/>
+      <c r="AU108" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="109" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
@@ -15384,9 +16738,15 @@
       <c r="AR109" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS109" s="2"/>
-      <c r="AT109" s="2"/>
-      <c r="AU109" s="2"/>
+      <c r="AS109" t="s">
+        <v>302</v>
+      </c>
+      <c r="AT109" t="s">
+        <v>303</v>
+      </c>
+      <c r="AU109" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="110" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -15519,9 +16879,15 @@
       <c r="AR110" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS110" s="2"/>
-      <c r="AT110" s="2"/>
-      <c r="AU110" s="2"/>
+      <c r="AS110" t="s">
+        <v>304</v>
+      </c>
+      <c r="AT110" t="s">
+        <v>305</v>
+      </c>
+      <c r="AU110" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="111" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
@@ -15654,9 +17020,15 @@
       <c r="AR111" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS111" s="2"/>
-      <c r="AT111" s="2"/>
-      <c r="AU111" s="2"/>
+      <c r="AS111" t="s">
+        <v>306</v>
+      </c>
+      <c r="AT111" t="s">
+        <v>307</v>
+      </c>
+      <c r="AU111" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="112" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
@@ -15789,9 +17161,15 @@
       <c r="AR112" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS112" s="2"/>
-      <c r="AT112" s="2"/>
-      <c r="AU112" s="2"/>
+      <c r="AS112" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT112" t="s">
+        <v>309</v>
+      </c>
+      <c r="AU112" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="113" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
@@ -15926,7 +17304,9 @@
       </c>
       <c r="AS113" s="2"/>
       <c r="AT113" s="2"/>
-      <c r="AU113" s="2"/>
+      <c r="AU113" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="114" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
@@ -16059,9 +17439,15 @@
       <c r="AR114" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS114" s="2"/>
-      <c r="AT114" s="2"/>
-      <c r="AU114" s="2"/>
+      <c r="AS114" t="s">
+        <v>310</v>
+      </c>
+      <c r="AT114" t="s">
+        <v>311</v>
+      </c>
+      <c r="AU114" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="115" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
@@ -16194,9 +17580,13 @@
       <c r="AR115" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS115" s="2"/>
+      <c r="AS115" t="s">
+        <v>312</v>
+      </c>
       <c r="AT115" s="2"/>
-      <c r="AU115" s="2"/>
+      <c r="AU115" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="116" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
@@ -16329,9 +17719,15 @@
       <c r="AR116" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS116" s="2"/>
-      <c r="AT116" s="2"/>
-      <c r="AU116" s="2"/>
+      <c r="AS116" t="s">
+        <v>313</v>
+      </c>
+      <c r="AT116" t="s">
+        <v>314</v>
+      </c>
+      <c r="AU116" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="117" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -16464,9 +17860,13 @@
       <c r="AR117" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS117" s="2"/>
+      <c r="AS117" t="s">
+        <v>315</v>
+      </c>
       <c r="AT117" s="2"/>
-      <c r="AU117" s="2"/>
+      <c r="AU117" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="118" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
@@ -16599,9 +17999,15 @@
       <c r="AR118" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS118" s="2"/>
-      <c r="AT118" s="2"/>
-      <c r="AU118" s="2"/>
+      <c r="AS118" t="s">
+        <v>316</v>
+      </c>
+      <c r="AT118" t="s">
+        <v>317</v>
+      </c>
+      <c r="AU118" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="119" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
@@ -16736,7 +18142,9 @@
       </c>
       <c r="AS119" s="2"/>
       <c r="AT119" s="2"/>
-      <c r="AU119" s="2"/>
+      <c r="AU119" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="120" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
@@ -16869,9 +18277,15 @@
       <c r="AR120" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS120" s="2"/>
-      <c r="AT120" s="2"/>
-      <c r="AU120" s="2"/>
+      <c r="AS120" t="s">
+        <v>318</v>
+      </c>
+      <c r="AT120" t="s">
+        <v>319</v>
+      </c>
+      <c r="AU120" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="121" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
@@ -17004,9 +18418,15 @@
       <c r="AR121" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS121" s="2"/>
-      <c r="AT121" s="2"/>
-      <c r="AU121" s="2"/>
+      <c r="AS121" t="s">
+        <v>320</v>
+      </c>
+      <c r="AT121" t="s">
+        <v>321</v>
+      </c>
+      <c r="AU121" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="122" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -17135,9 +18555,13 @@
       <c r="AR122" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS122" s="2"/>
+      <c r="AS122" t="s">
+        <v>322</v>
+      </c>
       <c r="AT122" s="2"/>
-      <c r="AU122" s="2"/>
+      <c r="AU122" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="123" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
@@ -17268,7 +18692,9 @@
       </c>
       <c r="AS123" s="2"/>
       <c r="AT123" s="2"/>
-      <c r="AU123" s="2"/>
+      <c r="AU123" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="124" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
@@ -17397,9 +18823,15 @@
       <c r="AR124" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS124" s="2"/>
-      <c r="AT124" s="2"/>
-      <c r="AU124" s="2"/>
+      <c r="AS124" t="s">
+        <v>323</v>
+      </c>
+      <c r="AT124" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU124" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="125" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
@@ -17528,9 +18960,13 @@
       <c r="AR125" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS125" s="2"/>
+      <c r="AS125" t="s">
+        <v>325</v>
+      </c>
       <c r="AT125" s="2"/>
-      <c r="AU125" s="2"/>
+      <c r="AU125" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="126" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
@@ -17659,9 +19095,13 @@
       <c r="AR126" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS126" s="2"/>
+      <c r="AS126" t="s">
+        <v>326</v>
+      </c>
       <c r="AT126" s="2"/>
-      <c r="AU126" s="2"/>
+      <c r="AU126" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="127" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
@@ -17790,9 +19230,15 @@
       <c r="AR127" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS127" s="2"/>
-      <c r="AT127" s="2"/>
-      <c r="AU127" s="2"/>
+      <c r="AS127" t="s">
+        <v>327</v>
+      </c>
+      <c r="AT127" t="s">
+        <v>328</v>
+      </c>
+      <c r="AU127" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="128" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
@@ -17923,7 +19369,9 @@
       </c>
       <c r="AS128" s="2"/>
       <c r="AT128" s="2"/>
-      <c r="AU128" s="2"/>
+      <c r="AU128" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="129" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -18052,9 +19500,13 @@
       <c r="AR129" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS129" s="2"/>
+      <c r="AS129" t="s">
+        <v>329</v>
+      </c>
       <c r="AT129" s="2"/>
-      <c r="AU129" s="2"/>
+      <c r="AU129" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="130" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
@@ -18183,9 +19635,13 @@
       <c r="AR130" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS130" s="2"/>
+      <c r="AS130" t="s">
+        <v>330</v>
+      </c>
       <c r="AT130" s="2"/>
-      <c r="AU130" s="2"/>
+      <c r="AU130" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="131" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
@@ -18314,9 +19770,13 @@
       <c r="AR131" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS131" s="2"/>
+      <c r="AS131" t="s">
+        <v>331</v>
+      </c>
       <c r="AT131" s="2"/>
-      <c r="AU131" s="2"/>
+      <c r="AU131" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="132" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
@@ -18445,9 +19905,13 @@
       <c r="AR132" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS132" s="2"/>
+      <c r="AS132" t="s">
+        <v>332</v>
+      </c>
       <c r="AT132" s="2"/>
-      <c r="AU132" s="2"/>
+      <c r="AU132" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="133" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
@@ -18578,7 +20042,9 @@
       </c>
       <c r="AS133" s="2"/>
       <c r="AT133" s="2"/>
-      <c r="AU133" s="2"/>
+      <c r="AU133" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="134" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -18711,9 +20177,15 @@
       <c r="AR134" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS134" s="2"/>
-      <c r="AT134" s="2"/>
-      <c r="AU134" s="2"/>
+      <c r="AS134" t="s">
+        <v>333</v>
+      </c>
+      <c r="AT134" t="s">
+        <v>334</v>
+      </c>
+      <c r="AU134" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="135" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
@@ -18846,9 +20318,13 @@
       <c r="AR135" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS135" s="2"/>
+      <c r="AS135" t="s">
+        <v>335</v>
+      </c>
       <c r="AT135" s="2"/>
-      <c r="AU135" s="2"/>
+      <c r="AU135" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="136" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
@@ -18981,9 +20457,13 @@
       <c r="AR136" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS136" s="2"/>
+      <c r="AS136" t="s">
+        <v>336</v>
+      </c>
       <c r="AT136" s="2"/>
-      <c r="AU136" s="2"/>
+      <c r="AU136" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="137" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
@@ -19116,9 +20596,13 @@
       <c r="AR137" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS137" s="2"/>
+      <c r="AS137" t="s">
+        <v>337</v>
+      </c>
       <c r="AT137" s="2"/>
-      <c r="AU137" s="2"/>
+      <c r="AU137" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="138" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
@@ -19253,7 +20737,9 @@
       </c>
       <c r="AS138" s="2"/>
       <c r="AT138" s="2"/>
-      <c r="AU138" s="2"/>
+      <c r="AU138" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="139" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
@@ -19386,9 +20872,15 @@
       <c r="AR139" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS139" s="2"/>
-      <c r="AT139" s="2"/>
-      <c r="AU139" s="2"/>
+      <c r="AS139" t="s">
+        <v>338</v>
+      </c>
+      <c r="AT139" t="s">
+        <v>339</v>
+      </c>
+      <c r="AU139" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="140" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
@@ -19521,9 +21013,15 @@
       <c r="AR140" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS140" s="2"/>
-      <c r="AT140" s="2"/>
-      <c r="AU140" s="2"/>
+      <c r="AS140" t="s">
+        <v>340</v>
+      </c>
+      <c r="AT140" t="s">
+        <v>341</v>
+      </c>
+      <c r="AU140" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="141" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -19656,9 +21154,15 @@
       <c r="AR141" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS141" s="2"/>
-      <c r="AT141" s="2"/>
-      <c r="AU141" s="2"/>
+      <c r="AS141" t="s">
+        <v>342</v>
+      </c>
+      <c r="AT141" t="s">
+        <v>343</v>
+      </c>
+      <c r="AU141" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="142" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
@@ -19791,9 +21295,13 @@
       <c r="AR142" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS142" s="2"/>
+      <c r="AS142" t="s">
+        <v>344</v>
+      </c>
       <c r="AT142" s="2"/>
-      <c r="AU142" s="2"/>
+      <c r="AU142" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="143" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
@@ -19926,9 +21434,15 @@
       <c r="AR143" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS143" s="2"/>
-      <c r="AT143" s="2"/>
-      <c r="AU143" s="2"/>
+      <c r="AS143" t="s">
+        <v>345</v>
+      </c>
+      <c r="AT143" t="s">
+        <v>346</v>
+      </c>
+      <c r="AU143" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="144" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
@@ -20061,9 +21575,15 @@
       <c r="AR144" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS144" s="2"/>
-      <c r="AT144" s="2"/>
-      <c r="AU144" s="2"/>
+      <c r="AS144" t="s">
+        <v>347</v>
+      </c>
+      <c r="AT144" t="s">
+        <v>348</v>
+      </c>
+      <c r="AU144" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="145" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
@@ -20196,9 +21716,15 @@
       <c r="AR145" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS145" s="2"/>
-      <c r="AT145" s="2"/>
-      <c r="AU145" s="2"/>
+      <c r="AS145" t="s">
+        <v>349</v>
+      </c>
+      <c r="AT145" t="s">
+        <v>350</v>
+      </c>
+      <c r="AU145" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
